--- a/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/MARASIGAN, BIENVENIDO JR..xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9B992-326C-47F1-9628-17C671060D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8FFD1C-6091-4D99-86E1-1E84E1C9B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="179">
   <si>
     <t>PERIOD</t>
   </si>
@@ -400,7 +400,181 @@
     <t>2013</t>
   </si>
   <si>
-    <t>sp</t>
+    <t>5/30,31, 6/1</t>
+  </si>
+  <si>
+    <t>12/7,14,21,28/2012</t>
+  </si>
+  <si>
+    <t>12/16-20/2012</t>
+  </si>
+  <si>
+    <t>5/15,16,19/2014</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>6/23-30/2014</t>
+  </si>
+  <si>
+    <t>7/1-4/2014</t>
+  </si>
+  <si>
+    <t>7/7,8/2014</t>
+  </si>
+  <si>
+    <t>7/23,24,25,28/2014</t>
+  </si>
+  <si>
+    <t>10/1-3,7/2014</t>
+  </si>
+  <si>
+    <t>10/8-10/2014</t>
+  </si>
+  <si>
+    <t>10/10,15,16/2014</t>
+  </si>
+  <si>
+    <t>11/27,28/2014</t>
+  </si>
+  <si>
+    <t>SL(2-5-0)</t>
+  </si>
+  <si>
+    <t>12/1-3/2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>4/16,17,20/2015</t>
+  </si>
+  <si>
+    <t>10/5,6/2015</t>
+  </si>
+  <si>
+    <t>10/16-23/2015</t>
+  </si>
+  <si>
+    <t>10/12-15/2015</t>
+  </si>
+  <si>
+    <t>12/1,2/2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>SVL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SVL(7-0-0)</t>
+  </si>
+  <si>
+    <t>7/21-29/2016</t>
+  </si>
+  <si>
+    <t>8/11,12,15/2016</t>
+  </si>
+  <si>
+    <t>8/30,31/2016</t>
+  </si>
+  <si>
+    <t>9/21,22,23/2016</t>
+  </si>
+  <si>
+    <t>10/21,22/2016</t>
+  </si>
+  <si>
+    <t>11/10,11/2016</t>
+  </si>
+  <si>
+    <t>11/17,18/2016</t>
+  </si>
+  <si>
+    <t>11/22,25,28/2016</t>
+  </si>
+  <si>
+    <t>12/19-23/2016</t>
+  </si>
+  <si>
+    <t>12/15,16/2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>1/6,10,11/2017</t>
+  </si>
+  <si>
+    <t>SVL(3-5-0)</t>
+  </si>
+  <si>
+    <t>1/25,26,27HD</t>
+  </si>
+  <si>
+    <t>1/31, 2/1</t>
+  </si>
+  <si>
+    <t>2,14,15/2017</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/26-30/11/2,3</t>
+  </si>
+  <si>
+    <t>VL(21-0-0)</t>
+  </si>
+  <si>
+    <t>3/19-21/2018</t>
+  </si>
+  <si>
+    <t>SL(2-0-0(</t>
+  </si>
+  <si>
+    <t>4/19,20/2018</t>
+  </si>
+  <si>
+    <t>5/3,4/2018</t>
+  </si>
+  <si>
+    <t>6/14,18/2018</t>
+  </si>
+  <si>
+    <t>6/20,21,22/2018</t>
+  </si>
+  <si>
+    <t>7/10,11/2018</t>
+  </si>
+  <si>
+    <t>SVL(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/8,9,10,13/2018</t>
+  </si>
+  <si>
+    <t>8/15,16,17/2018</t>
+  </si>
+  <si>
+    <t>9/3,4/2018</t>
+  </si>
+  <si>
+    <t>9/25,26,27/2018</t>
+  </si>
+  <si>
+    <t>SVL(8-0-0)</t>
+  </si>
+  <si>
+    <t>10/10-19/2018</t>
+  </si>
+  <si>
+    <t>VL(19-0-0)</t>
+  </si>
+  <si>
+    <t>10/29,30,31/2018</t>
   </si>
 </sst>
 </file>
@@ -795,15 +969,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -816,11 +981,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3037,10 +3211,13 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Sheet1"/>
+      <sheetName val="2018 LEAVE CREDITS"/>
+      <sheetName val="2017 LEAVE BALANCE"/>
       <sheetName val="CONVERTION"/>
-      <sheetName val="ATIENZA, JULIE ANN ANCIANO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3082,7 +3259,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K230" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K361" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3463,9 +3640,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A95"/>
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C101"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3495,14 +3672,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3515,16 +3692,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="57">
         <v>37559</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3537,14 +3714,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3570,18 +3747,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5899,17 +6076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5942,12 +6119,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K230"/>
+  <dimension ref="A2:K361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A166" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
+      <pane ySplit="3576" topLeftCell="A278" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B2:C3"/>
+      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5978,14 +6155,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5999,17 +6176,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="57">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>37559</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6022,17 +6199,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6058,18 +6235,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6116,7 +6293,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>165.06900000000002</v>
+        <v>20.568999999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6126,7 +6303,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.792</v>
+        <v>30.292000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8616,7 +8793,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>165.06900000000002</v>
+        <v>20.568999999999988</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -8626,7 +8803,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.792</v>
+        <v>30.292000000000002</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
@@ -9387,7 +9564,9 @@
       <c r="A159" s="40">
         <v>40968</v>
       </c>
-      <c r="B159" s="20"/>
+      <c r="B159" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C159" s="13">
         <v>1.25</v>
       </c>
@@ -9401,7 +9580,9 @@
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="20"/>
+      <c r="K159" s="49">
+        <v>40949</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
@@ -9427,7 +9608,9 @@
       <c r="A161" s="40">
         <v>41029</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -9438,20 +9621,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="39">
+        <v>1</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="49">
+        <v>41019</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>41060</v>
       </c>
-      <c r="B162" s="20"/>
+      <c r="B162" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
-      <c r="D162" s="39"/>
+      <c r="D162" s="39">
+        <v>1</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13">
@@ -9461,51 +9652,57 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="49">
+        <v>41044</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40">
-        <v>41090</v>
-      </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A163" s="40"/>
+      <c r="B163" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" s="13"/>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H163" s="39"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39">
+        <v>1</v>
+      </c>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
+      <c r="K163" s="49">
+        <v>41040</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="40">
-        <v>41121</v>
-      </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A164" s="40"/>
+      <c r="B164" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H164" s="39"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39">
+        <v>3</v>
+      </c>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="49" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>41152</v>
+        <v>41090</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -9525,7 +9722,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>41182</v>
+        <v>41121</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -9545,29 +9742,37 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>41213</v>
-      </c>
-      <c r="B167" s="15"/>
+        <v>41152</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
-      <c r="D167" s="43"/>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H167" s="43"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H167" s="39">
+        <v>1</v>
+      </c>
       <c r="I167" s="9"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="15"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="49">
+        <v>41149</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>41243</v>
-      </c>
-      <c r="B168" s="20"/>
+        <v>41182</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C168" s="13">
         <v>1.25</v>
       </c>
@@ -9578,58 +9783,78 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H168" s="39"/>
+      <c r="H168" s="39">
+        <v>1</v>
+      </c>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>41274</v>
-      </c>
-      <c r="B169" s="20"/>
+        <v>41213</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
-      <c r="D169" s="39"/>
+      <c r="D169" s="43"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H169" s="39"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H169" s="43">
+        <v>1</v>
+      </c>
       <c r="I169" s="9"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="50">
+        <v>41200</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="39"/>
+      <c r="A170" s="40">
+        <v>41243</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D170" s="39">
+        <v>4</v>
+      </c>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>41305</v>
-      </c>
-      <c r="B171" s="20"/>
+        <v>41274</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C171" s="13">
         <v>1.25</v>
       </c>
-      <c r="D171" s="39"/>
+      <c r="D171" s="39">
+        <v>5</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
       <c r="G171" s="13">
@@ -9639,24 +9864,22 @@
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="40">
-        <v>41333</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A172" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13"/>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
@@ -9665,7 +9888,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>41364</v>
+        <v>41305</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -9685,7 +9908,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>41394</v>
+        <v>41333</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -9705,7 +9928,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>41425</v>
+        <v>41364</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -9725,7 +9948,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>41455</v>
+        <v>41394</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -9745,7 +9968,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>41486</v>
+        <v>41425</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -9765,7 +9988,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>41517</v>
+        <v>41455</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -9785,7 +10008,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>41547</v>
+        <v>41486</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -9805,7 +10028,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>41578</v>
+        <v>41517</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -9825,7 +10048,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>41608</v>
+        <v>41547</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -9845,7 +10068,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>41639</v>
+        <v>41578</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -9865,7 +10088,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>41670</v>
+        <v>41608</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -9885,13 +10108,17 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>41698</v>
-      </c>
-      <c r="B184" s="20"/>
+        <v>41639</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C184" s="13">
         <v>1.25</v>
       </c>
-      <c r="D184" s="39"/>
+      <c r="D184" s="39">
+        <v>5</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
       <c r="G184" s="13">
@@ -9904,19 +10131,17 @@
       <c r="K184" s="20"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="40">
-        <v>41729</v>
+      <c r="A185" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="B185" s="20"/>
-      <c r="C185" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C185" s="13"/>
       <c r="D185" s="39"/>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
@@ -9925,9 +10150,11 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>41759</v>
-      </c>
-      <c r="B186" s="20"/>
+        <v>41670</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
@@ -9941,11 +10168,13 @@
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
+      <c r="K186" s="49">
+        <v>41647</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>41790</v>
+        <v>41698</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
@@ -9965,13 +10194,17 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>41820</v>
-      </c>
-      <c r="B188" s="20"/>
+        <v>41729</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
-      <c r="D188" s="39"/>
+      <c r="D188" s="39">
+        <v>1</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
       <c r="G188" s="13">
@@ -9981,13 +10214,17 @@
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="20"/>
+      <c r="K188" s="49">
+        <v>41726</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>41851</v>
-      </c>
-      <c r="B189" s="20"/>
+        <v>41759</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
@@ -10001,13 +10238,17 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
+      <c r="K189" s="49">
+        <v>41757</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <v>41882</v>
-      </c>
-      <c r="B190" s="20"/>
+        <v>41790</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C190" s="13">
         <v>1.25</v>
       </c>
@@ -10021,57 +10262,67 @@
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="49">
+        <v>41761</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="40">
-        <v>41912</v>
-      </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A191" s="40"/>
+      <c r="B191" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C191" s="13"/>
       <c r="D191" s="39"/>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H191" s="39"/>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="39">
+        <v>1</v>
+      </c>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="20"/>
+      <c r="K191" s="49">
+        <v>41768</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="40">
-        <v>41943</v>
-      </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A192" s="40"/>
+      <c r="B192" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" s="13"/>
       <c r="D192" s="39"/>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H192" s="39"/>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="39">
+        <v>3</v>
+      </c>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20"/>
+      <c r="K192" s="49" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>41973</v>
-      </c>
-      <c r="B193" s="20"/>
+        <v>41820</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C193" s="13">
         <v>1.25</v>
       </c>
-      <c r="D193" s="39"/>
+      <c r="D193" s="39">
+        <v>6</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
       <c r="G193" s="13">
@@ -10081,17 +10332,23 @@
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="20"/>
+      <c r="K193" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>42004</v>
-      </c>
-      <c r="B194" s="20"/>
+        <v>41851</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
-      <c r="D194" s="39"/>
+      <c r="D194" s="39">
+        <v>4</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
       <c r="G194" s="13">
@@ -10101,51 +10358,57 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="40">
-        <v>42035</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A195" s="40"/>
+      <c r="B195" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C195" s="13"/>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H195" s="39"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39">
+        <v>2</v>
+      </c>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
+      <c r="K195" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="40">
-        <v>42063</v>
-      </c>
-      <c r="B196" s="20"/>
-      <c r="C196" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A196" s="40"/>
+      <c r="B196" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="13"/>
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H196" s="39"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="39">
+        <v>4</v>
+      </c>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>42094</v>
+        <v>41882</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -10165,13 +10428,17 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>42124</v>
-      </c>
-      <c r="B198" s="20"/>
+        <v>41912</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
-      <c r="D198" s="39"/>
+      <c r="D198" s="39">
+        <v>1</v>
+      </c>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
       <c r="G198" s="13">
@@ -10181,17 +10448,23 @@
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="20"/>
+      <c r="K198" s="49">
+        <v>41912</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>42155</v>
-      </c>
-      <c r="B199" s="20"/>
+        <v>41943</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
-      <c r="D199" s="39"/>
+      <c r="D199" s="39">
+        <v>4</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
       <c r="G199" s="13">
@@ -10201,73 +10474,83 @@
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
+      <c r="K199" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="40">
-        <v>42185</v>
-      </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D200" s="39"/>
+      <c r="A200" s="40"/>
+      <c r="B200" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="39">
+        <v>3</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G200" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="40">
-        <v>42216</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A201" s="40"/>
+      <c r="B201" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C201" s="13"/>
       <c r="D201" s="39"/>
       <c r="E201" s="9"/>
       <c r="F201" s="20"/>
-      <c r="G201" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H201" s="39"/>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="39">
+        <v>1</v>
+      </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
+      <c r="K201" s="49">
+        <v>41925</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="40">
-        <v>42247</v>
-      </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A202" s="40"/>
+      <c r="B202" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C202" s="13"/>
       <c r="D202" s="39"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H202" s="39"/>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H202" s="39">
+        <v>3</v>
+      </c>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20"/>
+      <c r="K202" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>42277</v>
-      </c>
-      <c r="B203" s="20"/>
+        <v>41973</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C203" s="13">
         <v>1.25</v>
       </c>
@@ -10278,36 +10561,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H203" s="39"/>
+      <c r="H203" s="39">
+        <v>2</v>
+      </c>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="20"/>
+      <c r="K203" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="40">
-        <v>42308</v>
-      </c>
-      <c r="B204" s="20"/>
-      <c r="C204" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A204" s="40"/>
+      <c r="B204" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C204" s="13"/>
       <c r="D204" s="39"/>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H204" s="39"/>
+      <c r="G204" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H204" s="39">
+        <v>2.5</v>
+      </c>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="20"/>
+      <c r="K204" s="20" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>42338</v>
-      </c>
-      <c r="B205" s="20"/>
+        <v>42004</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C205" s="13">
         <v>1.25</v>
       </c>
@@ -10318,34 +10609,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H205" s="39"/>
+      <c r="H205" s="39">
+        <v>1</v>
+      </c>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="20"/>
+      <c r="K205" s="49">
+        <v>42002</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="40">
-        <v>42369</v>
+      <c r="A206" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="B206" s="20"/>
-      <c r="C206" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C206" s="13"/>
       <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G206" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="49"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>42400</v>
+        <v>42035</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -10365,7 +10658,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>42429</v>
+        <v>42063</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -10385,7 +10678,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>42460</v>
+        <v>42094</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -10405,13 +10698,17 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>42490</v>
-      </c>
-      <c r="B210" s="20"/>
+        <v>42124</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C210" s="13">
         <v>1.25</v>
       </c>
-      <c r="D210" s="39"/>
+      <c r="D210" s="39">
+        <v>1</v>
+      </c>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
       <c r="G210" s="13">
@@ -10421,33 +10718,37 @@
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="20"/>
+      <c r="K210" s="49">
+        <v>42101</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="40">
-        <v>42521</v>
-      </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A211" s="40"/>
+      <c r="B211" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211" s="13"/>
       <c r="D211" s="39"/>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G211" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20"/>
+      <c r="K211" s="49" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>42551</v>
-      </c>
-      <c r="B212" s="20"/>
+        <v>42155</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C212" s="13">
         <v>1.25</v>
       </c>
@@ -10458,34 +10759,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H212" s="39"/>
+      <c r="H212" s="39">
+        <v>1</v>
+      </c>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
+      <c r="K212" s="49">
+        <v>42139</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="40">
-        <v>42582</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A213" s="40"/>
+      <c r="B213" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C213" s="13"/>
       <c r="D213" s="39"/>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H213" s="39"/>
+      <c r="G213" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H213" s="39">
+        <v>1</v>
+      </c>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20"/>
+      <c r="K213" s="49">
+        <v>42149</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <v>42613</v>
+        <v>42185</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -10505,7 +10812,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>42643</v>
+        <v>42216</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -10525,7 +10832,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <v>42674</v>
+        <v>42247</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13">
@@ -10545,9 +10852,11 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>42704</v>
-      </c>
-      <c r="B217" s="20"/>
+        <v>42277</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C217" s="13">
         <v>1.25</v>
       </c>
@@ -10558,16 +10867,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H217" s="39"/>
+      <c r="H217" s="39">
+        <v>1</v>
+      </c>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="20"/>
+      <c r="K217" s="49">
+        <v>42277</v>
+      </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <v>42735</v>
-      </c>
-      <c r="B218" s="20"/>
+        <v>42308</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C218" s="13">
         <v>1.25</v>
       </c>
@@ -10578,56 +10893,66 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H218" s="39"/>
+      <c r="H218" s="39">
+        <v>2</v>
+      </c>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="20"/>
+      <c r="K218" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="40">
-        <v>42766</v>
-      </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D219" s="39"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="13"/>
+      <c r="D219" s="39">
+        <v>6</v>
+      </c>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G219" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="20"/>
+      <c r="K219" s="20" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="40">
-        <v>42794</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A220" s="40"/>
+      <c r="B220" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220" s="13"/>
       <c r="D220" s="39"/>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H220" s="39"/>
+      <c r="G220" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H220" s="39">
+        <v>6</v>
+      </c>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="20"/>
+      <c r="K220" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <v>42825</v>
-      </c>
-      <c r="B221" s="20"/>
+        <v>42338</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C221" s="13">
         <v>1.25</v>
       </c>
@@ -10638,16 +10963,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H221" s="39"/>
+      <c r="H221" s="39">
+        <v>2</v>
+      </c>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="20"/>
+      <c r="K221" s="20" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <v>42855</v>
-      </c>
-      <c r="B222" s="20"/>
+        <v>42369</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C222" s="13">
         <v>1.25</v>
       </c>
@@ -10658,34 +10989,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H222" s="39"/>
+      <c r="H222" s="39">
+        <v>1</v>
+      </c>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="20"/>
+      <c r="K222" s="49">
+        <v>42352</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="40">
-        <v>42886</v>
+      <c r="A223" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="B223" s="20"/>
-      <c r="C223" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C223" s="13"/>
       <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G223" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="20"/>
+      <c r="K223" s="49"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <v>42916</v>
+        <v>42400</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13">
@@ -10705,7 +11038,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
-        <v>42947</v>
+        <v>42429</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -10725,7 +11058,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
-        <v>42978</v>
+        <v>42460</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13">
@@ -10745,7 +11078,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <v>43008</v>
+        <v>42490</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -10765,7 +11098,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <v>43039</v>
+        <v>42521</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -10785,7 +11118,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <v>43069</v>
+        <v>42551</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13">
@@ -10805,13 +11138,17 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <v>43100</v>
-      </c>
-      <c r="B230" s="20"/>
+        <v>42582</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C230" s="13">
         <v>1.25</v>
       </c>
-      <c r="D230" s="39"/>
+      <c r="D230" s="39">
+        <v>1</v>
+      </c>
       <c r="E230" s="9"/>
       <c r="F230" s="20"/>
       <c r="G230" s="13">
@@ -10821,7 +11158,2645 @@
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="20"/>
+      <c r="K230" s="49">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="40"/>
+      <c r="B231" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="39">
+        <v>7</v>
+      </c>
+      <c r="E231" s="9"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H231" s="39"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="40">
+        <v>42613</v>
+      </c>
+      <c r="B232" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C232" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D232" s="39"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H232" s="39">
+        <v>1</v>
+      </c>
+      <c r="I232" s="9"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="49">
+        <v>42591</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40"/>
+      <c r="B233" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="39">
+        <v>3</v>
+      </c>
+      <c r="E233" s="9"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H233" s="39"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40"/>
+      <c r="B234" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="39">
+        <v>2</v>
+      </c>
+      <c r="E234" s="9"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H234" s="39"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="40">
+        <v>42643</v>
+      </c>
+      <c r="B235" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D235" s="39"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H235" s="39">
+        <v>1</v>
+      </c>
+      <c r="I235" s="9"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="49">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40"/>
+      <c r="B236" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="39">
+        <v>3</v>
+      </c>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="39"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40"/>
+      <c r="B237" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39">
+        <v>1</v>
+      </c>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="49">
+        <v>42632</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40"/>
+      <c r="B238" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39">
+        <v>2</v>
+      </c>
+      <c r="E238" s="9"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40">
+        <v>42674</v>
+      </c>
+      <c r="B239" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D239" s="39"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H239" s="39">
+        <v>1</v>
+      </c>
+      <c r="I239" s="9"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="49">
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40">
+        <v>42704</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D240" s="39"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H240" s="39">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40"/>
+      <c r="B241" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39">
+        <v>2</v>
+      </c>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="40"/>
+      <c r="B242" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39">
+        <v>3</v>
+      </c>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40"/>
+      <c r="B243" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="39">
+        <v>1</v>
+      </c>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="49">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40">
+        <v>42735</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D244" s="39">
+        <v>1</v>
+      </c>
+      <c r="E244" s="9"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="49">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40"/>
+      <c r="B245" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39">
+        <v>5</v>
+      </c>
+      <c r="E245" s="9"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="39"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40"/>
+      <c r="B246" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H246" s="39">
+        <v>1</v>
+      </c>
+      <c r="I246" s="9"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="49">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40"/>
+      <c r="B247" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C247" s="13"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H247" s="39">
+        <v>2</v>
+      </c>
+      <c r="I247" s="9"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="49"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40">
+        <v>42766</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="40"/>
+      <c r="B250" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40"/>
+      <c r="B251" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="40"/>
+      <c r="B252" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39">
+        <v>2</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40">
+        <v>42794</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C253" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D253" s="39">
+        <v>2</v>
+      </c>
+      <c r="E253" s="9"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H253" s="39"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40"/>
+      <c r="B254" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="49">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="40">
+        <v>42825</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D255" s="39"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H255" s="39">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="49">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <v>42855</v>
+      </c>
+      <c r="B256" s="20"/>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D256" s="39"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H256" s="39"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="20"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40">
+        <v>42886</v>
+      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H257" s="39"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="40">
+        <v>42916</v>
+      </c>
+      <c r="B258" s="20"/>
+      <c r="C258" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H258" s="39"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="20"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="40">
+        <v>42947</v>
+      </c>
+      <c r="B259" s="20"/>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D259" s="39"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H259" s="39"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="20"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40">
+        <v>42978</v>
+      </c>
+      <c r="B260" s="20"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D260" s="39"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H260" s="39"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="20"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40">
+        <v>43008</v>
+      </c>
+      <c r="B261" s="20"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D261" s="39"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H261" s="39"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="20"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="40">
+        <v>43039</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D262" s="39"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H262" s="39">
+        <v>5</v>
+      </c>
+      <c r="I262" s="9"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="40">
+        <v>43069</v>
+      </c>
+      <c r="B263" s="20"/>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D263" s="39"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H263" s="39"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="20"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="40">
+        <v>43100</v>
+      </c>
+      <c r="B264" s="20"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D264" s="39"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H264" s="39"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="20"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B265" s="20"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H265" s="39"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="20"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="40">
+        <v>43131</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" s="13"/>
+      <c r="D266" s="39">
+        <v>21</v>
+      </c>
+      <c r="E266" s="9"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H266" s="39"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="20"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="40">
+        <v>43159</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C267" s="13"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H267" s="39">
+        <v>1</v>
+      </c>
+      <c r="I267" s="9"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="49">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="40">
+        <v>43190</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C268" s="13"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H268" s="39">
+        <v>3</v>
+      </c>
+      <c r="I268" s="9"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="40">
+        <v>43220</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C269" s="13"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H269" s="39"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="49">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="40"/>
+      <c r="B270" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C270" s="13"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H270" s="39">
+        <v>2</v>
+      </c>
+      <c r="I270" s="9"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="40"/>
+      <c r="B271" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C271" s="13"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H271" s="39">
+        <v>1</v>
+      </c>
+      <c r="I271" s="9"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="49">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="40">
+        <v>43251</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C272" s="13"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H272" s="39">
+        <v>2</v>
+      </c>
+      <c r="I272" s="9"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="40"/>
+      <c r="B273" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C273" s="13"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H273" s="39">
+        <v>1</v>
+      </c>
+      <c r="I273" s="9"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="49">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="40"/>
+      <c r="B274" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C274" s="13"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H274" s="39"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="49">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="40">
+        <v>43281</v>
+      </c>
+      <c r="B275" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C275" s="13"/>
+      <c r="D275" s="39"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H275" s="39">
+        <v>1</v>
+      </c>
+      <c r="I275" s="9"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="49">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="40"/>
+      <c r="B276" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C276" s="13"/>
+      <c r="D276" s="39"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H276" s="39">
+        <v>2</v>
+      </c>
+      <c r="I276" s="9"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="40"/>
+      <c r="B277" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" s="13"/>
+      <c r="D277" s="39"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H277" s="39">
+        <v>1</v>
+      </c>
+      <c r="I277" s="9"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="49">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="40"/>
+      <c r="B278" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C278" s="13"/>
+      <c r="D278" s="39"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H278" s="39">
+        <v>3</v>
+      </c>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="40">
+        <v>43312</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C279" s="13"/>
+      <c r="D279" s="39"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H279" s="39">
+        <v>1</v>
+      </c>
+      <c r="I279" s="9"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="49">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="40"/>
+      <c r="B280" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C280" s="13"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H280" s="39">
+        <v>2</v>
+      </c>
+      <c r="I280" s="9"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="40"/>
+      <c r="B281" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C281" s="13"/>
+      <c r="D281" s="39">
+        <v>1</v>
+      </c>
+      <c r="E281" s="9"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H281" s="39"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="49">
+        <v>43304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="40"/>
+      <c r="B282" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C282" s="13"/>
+      <c r="D282" s="39">
+        <v>1</v>
+      </c>
+      <c r="E282" s="9"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H282" s="39"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="49">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="40">
+        <v>43343</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C283" s="13"/>
+      <c r="D283" s="39">
+        <v>4</v>
+      </c>
+      <c r="E283" s="9"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H283" s="39"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="40"/>
+      <c r="B284" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C284" s="13"/>
+      <c r="D284" s="39">
+        <v>3</v>
+      </c>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40"/>
+      <c r="B285" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C285" s="13"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H285" s="39">
+        <v>1</v>
+      </c>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="49">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="40">
+        <v>43373</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C286" s="13"/>
+      <c r="D286" s="39">
+        <v>2</v>
+      </c>
+      <c r="E286" s="9"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H286" s="39"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40"/>
+      <c r="B287" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C287" s="13"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H287" s="39">
+        <v>1</v>
+      </c>
+      <c r="I287" s="9"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="49">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="40"/>
+      <c r="B288" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C288" s="13"/>
+      <c r="D288" s="39">
+        <v>3</v>
+      </c>
+      <c r="E288" s="9"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H288" s="39"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="40">
+        <v>43404</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C289" s="13"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H289" s="39">
+        <v>1</v>
+      </c>
+      <c r="I289" s="9"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="49">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="40"/>
+      <c r="B290" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C290" s="13"/>
+      <c r="D290" s="39">
+        <v>8</v>
+      </c>
+      <c r="E290" s="9"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H290" s="39"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40">
+        <v>43434</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C291" s="13"/>
+      <c r="D291" s="39">
+        <v>19</v>
+      </c>
+      <c r="E291" s="9"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H291" s="39"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="49">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="40"/>
+      <c r="B292" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C292" s="13"/>
+      <c r="D292" s="39">
+        <v>3</v>
+      </c>
+      <c r="E292" s="9"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H292" s="39"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="40">
+        <v>43465</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C293" s="13"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H293" s="39">
+        <v>1</v>
+      </c>
+      <c r="I293" s="9"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="49">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="40">
+        <v>43496</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="39"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40">
+        <v>43524</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <v>43555</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H296" s="39"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="40">
+        <v>43585</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="39"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H297" s="39"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="40">
+        <v>43616</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="40">
+        <v>43646</v>
+      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="39"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="20"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="40">
+        <v>43677</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40">
+        <v>43708</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40">
+        <v>43738</v>
+      </c>
+      <c r="B302" s="20"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H302" s="39"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="20"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>43769</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="40">
+        <v>43799</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="40">
+        <v>43830</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H305" s="39"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="40">
+        <v>43861</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40">
+        <v>43890</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40">
+        <v>43921</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40">
+        <v>43951</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="39"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="20"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="40">
+        <v>43982</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="20"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="40">
+        <v>44012</v>
+      </c>
+      <c r="B311" s="20"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="39"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H311" s="39"/>
+      <c r="I311" s="9"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="20"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="40">
+        <v>44043</v>
+      </c>
+      <c r="B312" s="20"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H312" s="39"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="20"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="40">
+        <v>44074</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H313" s="39"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="20"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="40">
+        <v>44104</v>
+      </c>
+      <c r="B314" s="20"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="39"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H314" s="39"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="20"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="40">
+        <v>44135</v>
+      </c>
+      <c r="B315" s="20"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="39"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H315" s="39"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="20"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="40">
+        <v>44165</v>
+      </c>
+      <c r="B316" s="20"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="39"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="20"/>
+      <c r="G316" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H316" s="39"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="20"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40">
+        <v>44196</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="20"/>
+      <c r="G317" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H317" s="39"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="20"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="40">
+        <v>44227</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H318" s="39"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="20"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>44255</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H319" s="39"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="20"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="40">
+        <v>44286</v>
+      </c>
+      <c r="B320" s="20"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="39"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H320" s="39"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="20"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40">
+        <v>44316</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="39"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H321" s="39"/>
+      <c r="I321" s="9"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="20"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="40">
+        <v>44347</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H322" s="39"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <v>44377</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="40">
+        <v>44408</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40">
+        <v>44439</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="40">
+        <v>44469</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>44500</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40">
+        <v>44530</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40">
+        <v>44561</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40">
+        <v>44592</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40">
+        <v>44620</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40">
+        <v>44651</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40">
+        <v>44681</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <v>44712</v>
+      </c>
+      <c r="B334" s="15"/>
+      <c r="C334" s="42"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="15"/>
+      <c r="G334" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H334" s="43"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="12"/>
+      <c r="K334" s="15"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40">
+        <v>44742</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40">
+        <v>44773</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40">
+        <v>44804</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40">
+        <v>44834</v>
+      </c>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40">
+        <v>44865</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40">
+        <v>44895</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40">
+        <v>44957</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="40">
+        <v>44985</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40">
+        <v>45016</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40">
+        <v>45046</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="40">
+        <v>45077</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/MARASIGAN, BIENVENIDO JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>10/31 - 11/3/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1683,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1850,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1916,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2077,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2136,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2201,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2319,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2505,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2571,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2629,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2695,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2751,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2826,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2869,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2935,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2991,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3089,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +3152,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3220,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K422" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3595,12 +3598,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K422"/>
+  <dimension ref="A2:K423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A391" activePane="bottomLeft"/>
-      <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="I412" sqref="I412"/>
+      <pane ySplit="3690" topLeftCell="A399" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,7 +3766,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>4.3190000000000168</v>
+        <v>6.4440000000000168</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3773,7 +3776,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>-10.95799999999997</v>
+        <v>0.16700000000003001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6263,7 +6266,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.3190000000000168</v>
+        <v>6.4440000000000168</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -6273,7 +6276,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-10.95799999999997</v>
+        <v>0.16700000000003001</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
@@ -12634,14 +12637,14 @@
         <v>77</v>
       </c>
       <c r="C405" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
       <c r="G405" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H405" s="39">
         <v>1</v>
@@ -12731,11 +12734,11 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H409" s="39">
+      <c r="H409" s="39"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="39">
         <v>5</v>
       </c>
-      <c r="I409" s="9"/>
-      <c r="J409" s="11"/>
       <c r="K409" s="48" t="s">
         <v>254</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>72</v>
       </c>
       <c r="C410" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D410" s="39">
         <v>5</v>
@@ -12757,11 +12760,11 @@
       <c r="F410" s="20"/>
       <c r="G410" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
-      <c r="J410" s="11"/>
+      <c r="J410" s="39"/>
       <c r="K410" s="20" t="s">
         <v>255</v>
       </c>
@@ -12779,11 +12782,11 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H411" s="39">
+      <c r="H411" s="39"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="39">
         <v>2</v>
       </c>
-      <c r="I411" s="9"/>
-      <c r="J411" s="11"/>
       <c r="K411" s="20" t="s">
         <v>256</v>
       </c>
@@ -12801,11 +12804,11 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H412" s="39">
+      <c r="H412" s="39"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="39">
         <v>2</v>
       </c>
-      <c r="I412" s="9"/>
-      <c r="J412" s="11"/>
       <c r="K412" s="20" t="s">
         <v>257</v>
       </c>
@@ -12815,13 +12818,15 @@
         <v>45260</v>
       </c>
       <c r="B413" s="20"/>
-      <c r="C413" s="13"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="39"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="39"/>
       <c r="I413" s="9"/>
@@ -12833,13 +12838,15 @@
         <v>45291</v>
       </c>
       <c r="B414" s="20"/>
-      <c r="C414" s="13"/>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D414" s="39"/>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H414" s="39"/>
       <c r="I414" s="9"/>
@@ -12847,8 +12854,8 @@
       <c r="K414" s="20"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40">
-        <v>45322</v>
+      <c r="A415" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12866,7 +12873,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12884,7 +12891,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12902,7 +12909,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12920,7 +12927,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12938,7 +12945,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12956,7 +12963,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12974,7 +12981,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12989,6 +12996,24 @@
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="39"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13036,7 +13061,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13160,7 +13185,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(sheet1!E9,sheet1!I9)</f>
-        <v>-6.6389999999999532</v>
+        <v>6.6110000000000468</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/MARASIGAN, BIENVENIDO JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="260">
   <si>
     <t>PERIOD</t>
   </si>
@@ -807,10 +807,13 @@
     <t>10/12,13/2023</t>
   </si>
   <si>
-    <t>10/31 - 11/3/2023</t>
-  </si>
-  <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>1/11,12,15/2024</t>
+  </si>
+  <si>
+    <t>10/31, 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -3220,7 +3223,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K424" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3598,7 +3601,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K423"/>
+  <dimension ref="A2:K424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A399" activePane="bottomLeft"/>
@@ -12810,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="K412" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -12855,7 +12858,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12875,7 +12878,9 @@
       <c r="A416" s="40">
         <v>45322</v>
       </c>
-      <c r="B416" s="20"/>
+      <c r="B416" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
       <c r="E416" s="9"/>
@@ -12887,13 +12892,15 @@
       <c r="H416" s="39"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="20" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B417" s="20"/>
+      <c r="A417" s="40"/>
+      <c r="B417" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
@@ -12904,12 +12911,16 @@
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
-      <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="J417" s="11">
+        <v>1</v>
+      </c>
+      <c r="K417" s="48">
+        <v>45307</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12927,7 +12938,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12945,7 +12956,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12963,7 +12974,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12981,7 +12992,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12999,7 +13010,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -13014,6 +13025,24 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="39"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13061,7 +13090,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/MARASIGAN, BIENVENIDO JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="262">
   <si>
     <t>PERIOD</t>
   </si>
@@ -814,6 +814,12 @@
   </si>
   <si>
     <t>10/31, 11/3/2023</t>
+  </si>
+  <si>
+    <t>WITHOUTPAY</t>
+  </si>
+  <si>
+    <t>10/1-15/2022</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1692,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1735,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1799,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1859,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1925,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1988,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2086,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2145,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2210,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2328,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2514,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2580,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2638,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2704,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2760,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2835,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2878,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2944,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3000,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3098,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3161,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3229,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K424" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K425" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3601,12 +3607,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K424"/>
+  <dimension ref="A2:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A399" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A387" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
+      <selection pane="bottomLeft" activeCell="J399" sqref="J399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3775,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>6.4440000000000168</v>
+        <v>5.1940000000000168</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3779,7 +3785,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>0.16700000000003001</v>
+        <v>-1.08299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6269,7 +6275,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.4440000000000168</v>
+        <v>5.1940000000000168</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -6279,7 +6285,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.16700000000003001</v>
+        <v>-1.08299999999997</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
@@ -12314,45 +12320,49 @@
       <c r="A390" s="40">
         <v>44865</v>
       </c>
-      <c r="B390" s="20"/>
-      <c r="C390" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B390" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C390" s="13"/>
       <c r="D390" s="39"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
-      <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="J390" s="11">
+        <v>15</v>
+      </c>
+      <c r="K390" s="20" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="40">
-        <v>44895</v>
-      </c>
+      <c r="A391" s="40"/>
       <c r="B391" s="20"/>
-      <c r="C391" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C391" s="13"/>
       <c r="D391" s="39"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
-      <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="J391" s="11">
+        <v>15</v>
+      </c>
+      <c r="K391" s="48">
+        <v>44850</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13">
@@ -12371,17 +12381,19 @@
       <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="47" t="s">
-        <v>248</v>
+      <c r="A393" s="40">
+        <v>44926</v>
       </c>
       <c r="B393" s="20"/>
-      <c r="C393" s="13"/>
+      <c r="C393" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D393" s="39"/>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
@@ -12389,19 +12401,17 @@
       <c r="K393" s="20"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="40">
-        <v>44957</v>
+      <c r="A394" s="47" t="s">
+        <v>248</v>
       </c>
       <c r="B394" s="20"/>
-      <c r="C394" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C394" s="13"/>
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
@@ -12410,7 +12420,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -12430,7 +12440,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12450,7 +12460,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13">
@@ -12470,7 +12480,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -12490,11 +12500,9 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B399" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B399" s="20"/>
       <c r="C399" s="13">
         <v>1.25</v>
       </c>
@@ -12505,21 +12513,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H399" s="39">
-        <v>1</v>
-      </c>
+      <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="48">
-        <v>45100</v>
-      </c>
+      <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -12532,26 +12536,30 @@
         <v>1.25</v>
       </c>
       <c r="H400" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20" t="s">
-        <v>249</v>
+      <c r="K400" s="48">
+        <v>45100</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40"/>
+      <c r="A401" s="40">
+        <v>45138</v>
+      </c>
       <c r="B401" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39">
         <v>3</v>
@@ -12559,47 +12567,47 @@
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
       <c r="K401" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40">
-        <v>45169</v>
-      </c>
+      <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C402" s="13">
-        <v>1.25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C402" s="13"/>
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G402" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H402" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="48">
-        <v>45149</v>
+      <c r="K402" s="20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40"/>
+      <c r="A403" s="40">
+        <v>45169</v>
+      </c>
       <c r="B403" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39">
         <v>1</v>
@@ -12607,7 +12615,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="48">
-        <v>45160</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -12629,25 +12637,21 @@
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
       <c r="K404" s="48">
-        <v>45169</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C405" s="13">
-        <v>1.0420000000000003</v>
-      </c>
+      <c r="C405" s="13"/>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.0420000000000003</v>
+      <c r="G405" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H405" s="39">
         <v>1</v>
@@ -12655,79 +12659,83 @@
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
       <c r="K405" s="48">
-        <v>45173</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
+      <c r="A406" s="40">
+        <v>45199</v>
+      </c>
       <c r="B406" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C406" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C406" s="13">
+        <v>1.0420000000000003</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H406" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="48" t="s">
-        <v>252</v>
+      <c r="K406" s="48">
+        <v>45173</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="C407" s="13"/>
-      <c r="D407" s="39">
-        <v>2</v>
-      </c>
+      <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
       <c r="G407" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H407" s="39"/>
+      <c r="H407" s="39">
+        <v>2</v>
+      </c>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="C408" s="13"/>
-      <c r="D408" s="39"/>
+      <c r="D408" s="39">
+        <v>2</v>
+      </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
       <c r="G408" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H408" s="39">
-        <v>1</v>
-      </c>
+      <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="48">
-        <v>45189</v>
+      <c r="K408" s="48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -12737,61 +12745,61 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H409" s="39"/>
+      <c r="H409" s="39">
+        <v>1</v>
+      </c>
       <c r="I409" s="9"/>
-      <c r="J409" s="39">
-        <v>5</v>
-      </c>
-      <c r="K409" s="48" t="s">
-        <v>254</v>
+      <c r="J409" s="11"/>
+      <c r="K409" s="48">
+        <v>45189</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40">
-        <v>45230</v>
-      </c>
+      <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C410" s="13">
-        <v>1.0830000000000002</v>
-      </c>
-      <c r="D410" s="39">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.0830000000000002</v>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
-      <c r="J410" s="39"/>
-      <c r="K410" s="20" t="s">
-        <v>255</v>
+      <c r="J410" s="39">
+        <v>5</v>
+      </c>
+      <c r="K410" s="48" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+      <c r="A411" s="40">
+        <v>45230</v>
+      </c>
       <c r="B411" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C411" s="13"/>
-      <c r="D411" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="C411" s="13">
+        <v>1.0830000000000002</v>
+      </c>
+      <c r="D411" s="39">
+        <v>5</v>
+      </c>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H411" s="39"/>
       <c r="I411" s="9"/>
-      <c r="J411" s="39">
-        <v>2</v>
-      </c>
+      <c r="J411" s="39"/>
       <c r="K411" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -12813,32 +12821,34 @@
         <v>2</v>
       </c>
       <c r="K412" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B413" s="20"/>
-      <c r="C413" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A413" s="40"/>
+      <c r="B413" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C413" s="13"/>
       <c r="D413" s="39"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H413" s="39"/>
       <c r="I413" s="9"/>
-      <c r="J413" s="11"/>
-      <c r="K413" s="20"/>
+      <c r="J413" s="39">
+        <v>2</v>
+      </c>
+      <c r="K413" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -12857,17 +12867,19 @@
       <c r="K414" s="20"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="47" t="s">
-        <v>257</v>
+      <c r="A415" s="40">
+        <v>45291</v>
       </c>
       <c r="B415" s="20"/>
-      <c r="C415" s="13"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D415" s="39"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
@@ -12875,12 +12887,10 @@
       <c r="K415" s="20"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B416" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="A416" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B416" s="20"/>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
       <c r="E416" s="9"/>
@@ -12892,14 +12902,14 @@
       <c r="H416" s="39"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20" t="s">
-        <v>258</v>
-      </c>
+      <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40"/>
+      <c r="A417" s="40">
+        <v>45322</v>
+      </c>
       <c r="B417" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -12911,18 +12921,16 @@
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
-      <c r="J417" s="11">
-        <v>1</v>
-      </c>
-      <c r="K417" s="48">
-        <v>45307</v>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B418" s="20"/>
+      <c r="A418" s="40"/>
+      <c r="B418" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
       <c r="E418" s="9"/>
@@ -12933,12 +12941,16 @@
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="20"/>
+      <c r="J418" s="11">
+        <v>1</v>
+      </c>
+      <c r="K418" s="48">
+        <v>45307</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12956,7 +12968,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12974,7 +12986,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12992,7 +13004,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -13010,7 +13022,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -13028,7 +13040,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -13043,6 +13055,24 @@
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="39"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13214,7 +13244,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(sheet1!E9,sheet1!I9)</f>
-        <v>6.6110000000000468</v>
+        <v>4.1110000000000468</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
